--- a/MortalCombatBVersion/src/main/resources/Результаты.xlsx
+++ b/MortalCombatBVersion/src/main/resources/Результаты.xlsx
@@ -14,7 +14,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>rrr</t>
+  </si>
+  <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>апро</t>
+  </si>
+  <si>
+    <t>ек</t>
+  </si>
+  <si>
+    <t>edrtfgh</t>
   </si>
   <si>
     <t>f</t>
@@ -23,25 +35,13 @@
     <t>hello</t>
   </si>
   <si>
+    <t>ыцукенгл</t>
+  </si>
+  <si>
     <t>rrrrrrrrrrrrrrrrrrrrr</t>
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>hj</t>
-  </si>
-  <si>
-    <t>п</t>
-  </si>
-  <si>
-    <t>hj (2)</t>
-  </si>
-  <si>
-    <t>tttttt</t>
-  </si>
-  <si>
-    <t>eda</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>540.0</v>
+        <v>570.0</v>
       </c>
     </row>
     <row r="2">
@@ -105,7 +105,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>430.0</v>
+        <v>540.0</v>
       </c>
     </row>
     <row r="3">
@@ -113,7 +113,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>420.0</v>
+        <v>540.0</v>
       </c>
     </row>
     <row r="4">
@@ -121,7 +121,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>390.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="5">
@@ -129,7 +129,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>380.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="6">
@@ -137,7 +137,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>270.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="7">
@@ -145,7 +145,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>260.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="8">
@@ -153,7 +153,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>240.0</v>
+        <v>410.0</v>
       </c>
     </row>
     <row r="9">
@@ -161,7 +161,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>240.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="10">
@@ -169,7 +169,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>240.0</v>
+        <v>380.0</v>
       </c>
     </row>
   </sheetData>

--- a/MortalCombatBVersion/src/main/resources/Результаты.xlsx
+++ b/MortalCombatBVersion/src/main/resources/Результаты.xlsx
@@ -32,6 +32,9 @@
     <t>f</t>
   </si>
   <si>
+    <t>j</t>
+  </si>
+  <si>
     <t>hello</t>
   </si>
   <si>
@@ -39,9 +42,6 @@
   </si>
   <si>
     <t>rrrrrrrrrrrrrrrrrrrrr</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
 </sst>
 </file>
@@ -145,7 +145,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>420.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="8">
@@ -153,7 +153,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>410.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="9">
@@ -161,7 +161,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>390.0</v>
+        <v>410.0</v>
       </c>
     </row>
     <row r="10">
@@ -169,7 +169,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>380.0</v>
+        <v>390.0</v>
       </c>
     </row>
   </sheetData>
